--- a/ImportStudent/importStudent.xlsx
+++ b/ImportStudent/importStudent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\InternGuide\ImportStudent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD233A61-46D6-422F-9F2F-0377B715BC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB52C722-2A06-4E65-8D63-EA2957DBD166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3585" yWindow="2625" windowWidth="15375" windowHeight="7815" xr2:uid="{0DBCC949-BC0F-4608-97C0-F1BD803392F2}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
-  <si>
-    <t>sad</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">Id </t>
   </si>
@@ -54,35 +51,23 @@
     <t xml:space="preserve">John </t>
   </si>
   <si>
-    <t xml:space="preserve">Doe </t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
-    <t xml:space="preserve">Computer Sci </t>
-  </si>
-  <si>
-    <t>john.doe@email.com</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Ne</t>
-  </si>
-  <si>
-    <t>Il</t>
-  </si>
-  <si>
-    <t>Ambot</t>
+    <t>neil</t>
+  </si>
+  <si>
+    <t>Information Technology</t>
+  </si>
+  <si>
+    <t>ayingneil15@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +80,14 @@
       <color theme="1"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,8 +107,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -123,9 +117,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -441,157 +436,100 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>19104629</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>101</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="2">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>101</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>102</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2">
-        <v>5</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>103</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2">
-        <v>6</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>104</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2">
-        <v>7</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{C2476BE7-9F7A-4689-AD1D-6E19D741B986}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ImportStudent/importStudent.xlsx
+++ b/ImportStudent/importStudent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\InternGuide\ImportStudent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB52C722-2A06-4E65-8D63-EA2957DBD166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C5480C-9BEE-4E28-9107-DECA7B1F37DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3585" yWindow="2625" windowWidth="15375" windowHeight="7815" xr2:uid="{0DBCC949-BC0F-4608-97C0-F1BD803392F2}"/>
   </bookViews>
@@ -54,13 +54,13 @@
     <t>A</t>
   </si>
   <si>
-    <t>neil</t>
-  </si>
-  <si>
-    <t>Information Technology</t>
-  </si>
-  <si>
-    <t>ayingneil15@gmail.com</t>
+    <t>Secondary Education</t>
+  </si>
+  <si>
+    <t>ayingneil2@gmail.com</t>
+  </si>
+  <si>
+    <t>Neilo</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -473,25 +473,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>19104629</v>
+        <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F2" s="2">
         <v>4</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">

--- a/ImportStudent/importStudent.xlsx
+++ b/ImportStudent/importStudent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\InternGuide\ImportStudent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C5480C-9BEE-4E28-9107-DECA7B1F37DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76BDECD-B08F-43E1-9711-9ACA7411C92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="2625" windowWidth="15375" windowHeight="7815" xr2:uid="{0DBCC949-BC0F-4608-97C0-F1BD803392F2}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7815" xr2:uid="{0DBCC949-BC0F-4608-97C0-F1BD803392F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -436,7 +436,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,7 +473,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>

--- a/ImportStudent/importStudent.xlsx
+++ b/ImportStudent/importStudent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\InternGuide\ImportStudent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76BDECD-B08F-43E1-9711-9ACA7411C92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357DE9E1-9208-4575-B565-6ABF6D3464C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7815" xr2:uid="{0DBCC949-BC0F-4608-97C0-F1BD803392F2}"/>
+    <workbookView xWindow="3135" yWindow="2790" windowWidth="15375" windowHeight="7815" xr2:uid="{0DBCC949-BC0F-4608-97C0-F1BD803392F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,19 +48,19 @@
     <t xml:space="preserve">Email </t>
   </si>
   <si>
-    <t xml:space="preserve">John </t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
-    <t>Secondary Education</t>
-  </si>
-  <si>
     <t>ayingneil2@gmail.com</t>
   </si>
   <si>
-    <t>Neilo</t>
+    <t>dawdawd</t>
+  </si>
+  <si>
+    <t>wew</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
   </si>
 </sst>
 </file>
@@ -111,13 +111,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -436,12 +439,12 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
@@ -473,25 +476,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>109</v>
+        <v>123213123</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="F2" s="2">
         <v>4</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">

--- a/ImportStudent/importStudent.xlsx
+++ b/ImportStudent/importStudent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\InternGuide\ImportStudent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357DE9E1-9208-4575-B565-6ABF6D3464C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8B908C-D8C9-4962-9D8D-B671CF8416D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3135" yWindow="2790" windowWidth="15375" windowHeight="7815" xr2:uid="{0DBCC949-BC0F-4608-97C0-F1BD803392F2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t xml:space="preserve">Id </t>
   </si>
@@ -60,7 +60,16 @@
     <t>wew</t>
   </si>
   <si>
-    <t>Computer Science</t>
+    <t>ayingneil15@gmail.com</t>
+  </si>
+  <si>
+    <t>wadadw</t>
+  </si>
+  <si>
+    <t>awdawd</t>
+  </si>
+  <si>
+    <t>nursing</t>
   </si>
 </sst>
 </file>
@@ -439,7 +448,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,7 +485,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>123213123</v>
+        <v>12345</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
@@ -488,7 +497,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2">
         <v>4</v>
@@ -498,12 +507,27 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="A3" s="2">
+        <v>123456</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -532,6 +556,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{C2476BE7-9F7A-4689-AD1D-6E19D741B986}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{12A5BC62-56EB-43F2-A4C8-CEF839F305D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ImportStudent/importStudent.xlsx
+++ b/ImportStudent/importStudent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\InternGuide\ImportStudent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8B908C-D8C9-4962-9D8D-B671CF8416D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC359FC-FB22-4FBA-B31C-69DA16B7E074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3135" yWindow="2790" windowWidth="15375" windowHeight="7815" xr2:uid="{0DBCC949-BC0F-4608-97C0-F1BD803392F2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0DBCC949-BC0F-4608-97C0-F1BD803392F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t xml:space="preserve">Id </t>
   </si>
@@ -48,18 +48,6 @@
     <t xml:space="preserve">Email </t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>ayingneil2@gmail.com</t>
-  </si>
-  <si>
-    <t>dawdawd</t>
-  </si>
-  <si>
-    <t>wew</t>
-  </si>
-  <si>
     <t>ayingneil15@gmail.com</t>
   </si>
   <si>
@@ -69,7 +57,7 @@
     <t>awdawd</t>
   </si>
   <si>
-    <t>nursing</t>
+    <t>business</t>
   </si>
 </sst>
 </file>
@@ -120,16 +108,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -445,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E798E4A5-0D0F-4E73-9FA3-74736187DBB2}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,49 +470,34 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>12345</v>
+        <v>19104620</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="F2" s="2">
         <v>4</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>123456</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2">
-        <v>4</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -545,18 +515,9 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{C2476BE7-9F7A-4689-AD1D-6E19D741B986}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{12A5BC62-56EB-43F2-A4C8-CEF839F305D7}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{12A5BC62-56EB-43F2-A4C8-CEF839F305D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ImportStudent/importStudent.xlsx
+++ b/ImportStudent/importStudent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\InternGuide\ImportStudent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC359FC-FB22-4FBA-B31C-69DA16B7E074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B5E5C9-819B-4AF0-8401-5DB54A5055E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0DBCC949-BC0F-4608-97C0-F1BD803392F2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t xml:space="preserve">Id </t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>business</t>
+  </si>
+  <si>
+    <t>3rd</t>
   </si>
 </sst>
 </file>
@@ -430,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E798E4A5-0D0F-4E73-9FA3-74736187DBB2}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,7 +473,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>19104620</v>
+        <v>191046</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -484,8 +487,8 @@
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2">
-        <v>4</v>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>7</v>
@@ -497,7 +500,7 @@
       <c r="C3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -505,7 +508,7 @@
       <c r="C4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -513,7 +516,23 @@
       <c r="C5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
